--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7a197fbcb7db713/Documents/School/CS 638/Project/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{F81DD993-C52C-644A-A6B1-063746E280F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1F54F2E-C52A-A947-A342-B1C994340091}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="8_{F81DD993-C52C-644A-A6B1-063746E280F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7178E1E4-1DD7-B649-A663-E2965E9AF848}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18040" xr2:uid="{579ECF8A-8911-314F-B702-462A636067A9}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18020" xr2:uid="{579ECF8A-8911-314F-B702-462A636067A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Trial</t>
   </si>
@@ -65,9 +65,6 @@
     <t>2 - CSQA</t>
   </si>
   <si>
-    <t>2a - CSQA</t>
-  </si>
-  <si>
     <t>3a - CSQA</t>
   </si>
   <si>
@@ -102,35 +99,13 @@
   </si>
   <si>
     <t>3b - SayCan</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 1 = correct, 2 = incorrect format, 3 = incorrect</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,6 +124,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -172,10 +154,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,21 +493,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD652BF-F26B-4E40-BDF4-D987A03C2729}">
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="U10" sqref="B2:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="13" max="14" width="13.33203125" customWidth="1"/>
-    <col min="15" max="15" width="12.5" customWidth="1"/>
-    <col min="16" max="17" width="13.33203125" customWidth="1"/>
+    <col min="12" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="15" max="16" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -588,81 +571,78 @@
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -747,15 +727,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7a197fbcb7db713/Documents/School/CS 638/Project/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="8_{F81DD993-C52C-644A-A6B1-063746E280F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7178E1E4-1DD7-B649-A663-E2965E9AF848}"/>
+  <xr:revisionPtr revIDLastSave="388" documentId="8_{F81DD993-C52C-644A-A6B1-063746E280F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63CA22C2-3382-7546-BEFB-137DA7BE031A}"/>
   <bookViews>
     <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18020" xr2:uid="{579ECF8A-8911-314F-B702-462A636067A9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Trial</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>3b - SayCan</t>
+  </si>
+  <si>
+    <t>0 - Math</t>
+  </si>
+  <si>
+    <t>0 - CSQA</t>
+  </si>
+  <si>
+    <t>0 - StrategyQA</t>
+  </si>
+  <si>
+    <t>0 - SayCan</t>
   </si>
 </sst>
 </file>
@@ -493,156 +505,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD652BF-F26B-4E40-BDF4-D987A03C2729}">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="B2:U10"/>
+      <selection activeCell="Y3" sqref="B2:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="12" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" customWidth="1"/>
     <col min="15" max="16" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="12.5" customWidth="1"/>
+    <col min="18" max="19" width="13.33203125" customWidth="1"/>
+    <col min="20" max="20" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -727,14 +755,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="3"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7a197fbcb7db713/Documents/School/CS 638/Project/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="388" documentId="8_{F81DD993-C52C-644A-A6B1-063746E280F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63CA22C2-3382-7546-BEFB-137DA7BE031A}"/>
+  <xr:revisionPtr revIDLastSave="452" documentId="8_{F81DD993-C52C-644A-A6B1-063746E280F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CA83465-1A20-D447-B932-ECBB4CFD4FA5}"/>
   <bookViews>
     <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18020" xr2:uid="{579ECF8A-8911-314F-B702-462A636067A9}"/>
   </bookViews>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD652BF-F26B-4E40-BDF4-D987A03C2729}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="B2:Y3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,10 +604,136 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7a197fbcb7db713/Documents/School/CS 638/Project/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="452" documentId="8_{F81DD993-C52C-644A-A6B1-063746E280F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CA83465-1A20-D447-B932-ECBB4CFD4FA5}"/>
+  <xr:revisionPtr revIDLastSave="453" documentId="8_{F81DD993-C52C-644A-A6B1-063746E280F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB002842-AB6E-C74E-9449-777DB45E98D4}"/>
   <bookViews>
     <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18020" xr2:uid="{579ECF8A-8911-314F-B702-462A636067A9}"/>
   </bookViews>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD652BF-F26B-4E40-BDF4-D987A03C2729}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="B2:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,136 +604,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7a197fbcb7db713/Documents/School/CS 638/Project/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="453" documentId="8_{F81DD993-C52C-644A-A6B1-063746E280F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB002842-AB6E-C74E-9449-777DB45E98D4}"/>
+  <xr:revisionPtr revIDLastSave="1254" documentId="8_{F81DD993-C52C-644A-A6B1-063746E280F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7D70E12-EA09-2D4A-BDFC-925092832692}"/>
   <bookViews>
     <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18020" xr2:uid="{579ECF8A-8911-314F-B702-462A636067A9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Trial</t>
   </si>
@@ -111,6 +111,24 @@
   </si>
   <si>
     <t>0 - SayCan</t>
+  </si>
+  <si>
+    <t>SayCan: distracted by other tasks (placing items)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>SayCan: b: distracted by trash can, 2: stayed general but suffered from a similar distraction</t>
+  </si>
+  <si>
+    <t>SayCan: those marked as "correct" all did not provide a sufficient amount of steps, but significantly outperformed incorrect cases, where we saw a common refusal to engage in the task</t>
+  </si>
+  <si>
+    <t>SayCan 3a: was asked to bring stuff to them multiple times</t>
+  </si>
+  <si>
+    <t>SayCan 3a: interpreted park as a question about a car, wrong formatting (non step-by-step)</t>
   </si>
 </sst>
 </file>
@@ -507,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD652BF-F26B-4E40-BDF4-D987A03C2729}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="B2:Y3"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,10 +616,85 @@
       <c r="Y1" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="Z1" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
         <v>1</v>
       </c>
     </row>
@@ -609,158 +702,2405 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="3"/>
